--- a/media/files/2017/05/528.xlsx
+++ b/media/files/2017/05/528.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\keenking.github.io\media\files\2017\05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkkkk\keenking.github.io\media\files\2017\05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1404,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1520,9 +1520,11 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
       <c r="B4" s="16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10">
         <v>50</v>
@@ -1530,9 +1532,11 @@
       <c r="D4" s="10">
         <v>50</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10">
+        <v>50</v>
+      </c>
       <c r="F4" s="21" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G4" s="9">
         <v>25</v>
@@ -1546,19 +1550,25 @@
       <c r="J4" s="10">
         <v>50</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="9">
+        <v>90</v>
+      </c>
+      <c r="L4" s="9">
+        <v>30</v>
+      </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M35" si="0">SUM(C4:L4)</f>
-        <v>190</v>
+        <f>SUM(C4:L4)</f>
+        <v>360</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
       <c r="B5" s="16" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10">
         <v>50</v>
@@ -1566,9 +1576,11 @@
       <c r="D5" s="10">
         <v>50</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>50</v>
+      </c>
       <c r="F5" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G5" s="9">
         <v>25</v>
@@ -1582,19 +1594,25 @@
       <c r="J5" s="10">
         <v>50</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="9">
+        <v>60</v>
+      </c>
+      <c r="L5" s="9">
+        <v>30</v>
+      </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C5:L5)</f>
+        <v>330</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10">
         <v>50</v>
@@ -1602,12 +1620,14 @@
       <c r="D6" s="10">
         <v>50</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10">
+        <v>50</v>
+      </c>
       <c r="F6" s="21" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G6" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H6" s="9">
         <v>5</v>
@@ -1618,32 +1638,38 @@
       <c r="J6" s="10">
         <v>50</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>60</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C6:L6)</f>
+        <v>325</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
       <c r="B7" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10">
         <v>50</v>
       </c>
       <c r="D7" s="10">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="10">
+        <v>50</v>
+      </c>
       <c r="F7" s="21" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="G7" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1654,89 +1680,109 @@
       <c r="J7" s="10">
         <v>50</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>60</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f>SUM(C7:L7)</f>
+        <v>325</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
       <c r="B8" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10">
         <v>50</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>50</v>
+      </c>
       <c r="F8" s="21" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G8" s="9">
-        <v>25</v>
-      </c>
-      <c r="H8" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9">
         <v>10</v>
       </c>
       <c r="J8" s="10">
-        <v>10</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="K8" s="9">
+        <v>60</v>
+      </c>
+      <c r="L8" s="9">
+        <v>30</v>
+      </c>
       <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <f>SUM(C8:L8)</f>
+        <v>320</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
       <c r="B9" s="16" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C9" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10">
         <v>50</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>50</v>
+      </c>
       <c r="F9" s="21" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G9" s="9">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5</v>
+      </c>
       <c r="I9" s="9">
         <v>10</v>
       </c>
       <c r="J9" s="10">
-        <v>10</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="K9" s="9">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9">
+        <v>30</v>
+      </c>
       <c r="M9" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(C9:L9)</f>
+        <v>300</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10">
         <v>50</v>
@@ -1744,12 +1790,14 @@
       <c r="D10" s="10">
         <v>50</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10">
+        <v>50</v>
+      </c>
       <c r="F10" s="21" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="G10" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H10" s="9">
         <v>5</v>
@@ -1760,19 +1808,25 @@
       <c r="J10" s="10">
         <v>50</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="9">
+        <v>30</v>
+      </c>
+      <c r="L10" s="9">
+        <v>30</v>
+      </c>
       <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C10:L10)</f>
+        <v>300</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
       <c r="B11" s="16" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10">
         <v>50</v>
@@ -1780,12 +1834,14 @@
       <c r="D11" s="10">
         <v>50</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10">
+        <v>30</v>
+      </c>
       <c r="F11" s="21" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="G11" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H11" s="9">
         <v>5</v>
@@ -1796,19 +1852,23 @@
       <c r="J11" s="10">
         <v>50</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9">
+        <v>30</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C11:L11)</f>
+        <v>275</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
       <c r="B12" s="16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10">
         <v>50</v>
@@ -1816,9 +1876,11 @@
       <c r="D12" s="10">
         <v>50</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10">
+        <v>50</v>
+      </c>
       <c r="F12" s="21" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G12" s="9">
         <v>25</v>
@@ -1833,18 +1895,22 @@
         <v>50</v>
       </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9">
+        <v>30</v>
+      </c>
       <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C12:L12)</f>
+        <v>270</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="10">
         <v>50</v>
@@ -1852,33 +1918,41 @@
       <c r="D13" s="10">
         <v>50</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10">
+        <v>50</v>
+      </c>
       <c r="F13" s="21" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="G13" s="9">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5</v>
+      </c>
       <c r="I13" s="9">
         <v>10</v>
       </c>
       <c r="J13" s="10">
         <v>50</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9">
+        <v>30</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>SUM(C13:L13)</f>
+        <v>270</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
       <c r="B14" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
@@ -1886,9 +1960,11 @@
       <c r="D14" s="10">
         <v>50</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10">
+        <v>50</v>
+      </c>
       <c r="F14" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G14" s="9">
         <v>25</v>
@@ -1902,19 +1978,23 @@
       <c r="J14" s="10">
         <v>50</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9">
+        <v>30</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C14:L14)</f>
+        <v>270</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
       <c r="B15" s="16" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15" s="10">
         <v>50</v>
@@ -1922,9 +2002,11 @@
       <c r="D15" s="10">
         <v>50</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>50</v>
+      </c>
       <c r="F15" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="9">
         <v>25</v>
@@ -1938,32 +2020,38 @@
       <c r="J15" s="10">
         <v>50</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9">
+        <v>30</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C15:L15)</f>
+        <v>270</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
       <c r="B16" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C16" s="10">
         <v>50</v>
       </c>
       <c r="D16" s="10">
-        <v>50</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="10">
+        <v>50</v>
+      </c>
       <c r="F16" s="21" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="G16" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H16" s="9">
         <v>5</v>
@@ -1974,19 +2062,23 @@
       <c r="J16" s="10">
         <v>50</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9">
+        <v>60</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C16:L16)</f>
+        <v>265</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10">
         <v>50</v>
@@ -1994,12 +2086,14 @@
       <c r="D17" s="10">
         <v>50</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>50</v>
+      </c>
       <c r="F17" s="21" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="G17" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H17" s="9">
         <v>5</v>
@@ -2010,34 +2104,42 @@
       <c r="J17" s="10">
         <v>50</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="9">
+        <v>30</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C17:L17)</f>
+        <v>265</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
       <c r="B18" s="16" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10">
         <v>50</v>
       </c>
       <c r="D18" s="10">
-        <v>30</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="10">
+        <v>50</v>
+      </c>
       <c r="F18" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G18" s="9">
         <v>20</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9">
+        <v>5</v>
+      </c>
       <c r="I18" s="9">
         <v>10</v>
       </c>
@@ -2045,18 +2147,22 @@
         <v>50</v>
       </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9">
+        <v>30</v>
+      </c>
       <c r="M18" s="4">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUM(C18:L18)</f>
+        <v>265</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
       <c r="B19" s="16" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C19" s="10">
         <v>50</v>
@@ -2064,12 +2170,14 @@
       <c r="D19" s="10">
         <v>50</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10">
+        <v>50</v>
+      </c>
       <c r="F19" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G19" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H19" s="9">
         <v>5</v>
@@ -2083,16 +2191,18 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C19:L19)</f>
+        <v>265</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
@@ -2100,12 +2210,14 @@
       <c r="D20" s="10">
         <v>50</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10">
+        <v>50</v>
+      </c>
       <c r="F20" s="21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G20" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H20" s="9">
         <v>5</v>
@@ -2119,31 +2231,37 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C20:L20)</f>
+        <v>265</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
       <c r="B21" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
       </c>
       <c r="D21" s="10">
-        <v>30</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="10">
+        <v>50</v>
+      </c>
       <c r="F21" s="21" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="G21" s="9">
-        <v>15</v>
-      </c>
-      <c r="H21" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5</v>
+      </c>
       <c r="I21" s="9">
         <v>10</v>
       </c>
@@ -2153,50 +2271,58 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f>SUM(C21:L21)</f>
+        <v>265</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
       <c r="B22" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D22" s="10">
         <v>50</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10">
+        <v>50</v>
+      </c>
       <c r="F22" s="21" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="G22" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9">
         <v>10</v>
       </c>
       <c r="J22" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9">
+        <v>30</v>
+      </c>
       <c r="M22" s="4">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f>SUM(C22:L22)</f>
+        <v>265</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
       <c r="B23" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C23" s="10">
         <v>50</v>
@@ -2204,14 +2330,18 @@
       <c r="D23" s="10">
         <v>50</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10">
+        <v>50</v>
+      </c>
       <c r="F23" s="21" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G23" s="9">
-        <v>25</v>
-      </c>
-      <c r="H23" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
       <c r="I23" s="9">
         <v>10</v>
       </c>
@@ -2221,16 +2351,18 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C23:L23)</f>
+        <v>265</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
@@ -2238,12 +2370,14 @@
       <c r="D24" s="10">
         <v>50</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10">
+        <v>30</v>
+      </c>
       <c r="F24" s="21" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G24" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H24" s="9">
         <v>5</v>
@@ -2257,16 +2391,18 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C24:L24)</f>
+        <v>245</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
       <c r="B25" s="16" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C25" s="10">
         <v>50</v>
@@ -2274,12 +2410,14 @@
       <c r="D25" s="10">
         <v>50</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10">
+        <v>50</v>
+      </c>
       <c r="F25" s="21" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G25" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H25" s="9">
         <v>5</v>
@@ -2293,16 +2431,18 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C25:L25)</f>
+        <v>240</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
       <c r="B26" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
@@ -2310,12 +2450,14 @@
       <c r="D26" s="10">
         <v>50</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10">
+        <v>50</v>
+      </c>
       <c r="F26" s="21" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G26" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H26" s="9">
         <v>5</v>
@@ -2329,16 +2471,18 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C26:L26)</f>
+        <v>240</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
       <c r="B27" s="16" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
@@ -2346,12 +2490,14 @@
       <c r="D27" s="10">
         <v>50</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10">
+        <v>50</v>
+      </c>
       <c r="F27" s="21" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G27" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H27" s="9">
         <v>5</v>
@@ -2365,16 +2511,18 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C27:L27)</f>
+        <v>240</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
+      <c r="A28" s="20">
+        <v>25</v>
+      </c>
       <c r="B28" s="16" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C28" s="10">
         <v>50</v>
@@ -2382,12 +2530,14 @@
       <c r="D28" s="10">
         <v>50</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10">
+        <v>30</v>
+      </c>
       <c r="F28" s="21" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G28" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H28" s="9">
         <v>5</v>
@@ -2398,19 +2548,23 @@
       <c r="J28" s="10">
         <v>50</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9">
+        <v>30</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C28:L28)</f>
+        <v>240</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
+      <c r="A29" s="20">
+        <v>26</v>
+      </c>
       <c r="B29" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C29" s="10">
         <v>50</v>
@@ -2418,12 +2572,14 @@
       <c r="D29" s="10">
         <v>50</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10">
+        <v>50</v>
+      </c>
       <c r="F29" s="21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G29" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9">
         <v>5</v>
@@ -2437,16 +2593,18 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C29:L29)</f>
+        <v>240</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
+      <c r="A30" s="20">
+        <v>27</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
@@ -2454,48 +2612,54 @@
       <c r="D30" s="10">
         <v>50</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10">
+        <v>30</v>
+      </c>
       <c r="F30" s="21" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="G30" s="9">
-        <v>50</v>
-      </c>
-      <c r="H30" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="9">
         <v>10</v>
       </c>
       <c r="J30" s="10">
         <v>50</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9">
+        <v>30</v>
+      </c>
       <c r="L30" s="9"/>
       <c r="M30" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>SUM(C30:L30)</f>
+        <v>240</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
+      <c r="A31" s="20">
+        <v>28</v>
+      </c>
       <c r="B31" s="16" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C31" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D31" s="10">
-        <v>30</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="10">
+        <v>50</v>
+      </c>
       <c r="F31" s="21" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G31" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H31" s="9">
         <v>5</v>
@@ -2504,21 +2668,23 @@
         <v>10</v>
       </c>
       <c r="J31" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f>SUM(C31:L31)</f>
+        <v>240</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
+      <c r="A32" s="20">
+        <v>29</v>
+      </c>
       <c r="B32" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
@@ -2526,14 +2692,18 @@
       <c r="D32" s="10">
         <v>50</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10">
+        <v>50</v>
+      </c>
       <c r="F32" s="21" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G32" s="9">
         <v>25</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
       <c r="I32" s="9">
         <v>10</v>
       </c>
@@ -2543,16 +2713,18 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C32:L32)</f>
+        <v>240</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
+      <c r="A33" s="20">
+        <v>30</v>
+      </c>
       <c r="B33" s="16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
@@ -2560,12 +2732,14 @@
       <c r="D33" s="10">
         <v>50</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10">
+        <v>30</v>
+      </c>
       <c r="F33" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G33" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9">
@@ -2575,18 +2749,22 @@
         <v>50</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="9">
+        <v>30</v>
+      </c>
       <c r="M33" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(C33:L33)</f>
+        <v>240</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
+      <c r="A34" s="20">
+        <v>31</v>
+      </c>
       <c r="B34" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
@@ -2594,14 +2772,18 @@
       <c r="D34" s="10">
         <v>50</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>50</v>
+      </c>
       <c r="F34" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G34" s="9">
         <v>20</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9">
+        <v>5</v>
+      </c>
       <c r="I34" s="9">
         <v>10</v>
       </c>
@@ -2611,16 +2793,18 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>SUM(C34:L34)</f>
+        <v>235</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
+      <c r="A35" s="20">
+        <v>32</v>
+      </c>
       <c r="B35" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C35" s="10">
         <v>50</v>
@@ -2628,16 +2812,16 @@
       <c r="D35" s="10">
         <v>50</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>50</v>
+      </c>
       <c r="F35" s="21" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="G35" s="9">
         <v>25</v>
       </c>
-      <c r="H35" s="9">
-        <v>5</v>
-      </c>
+      <c r="H35" s="9"/>
       <c r="I35" s="9">
         <v>10</v>
       </c>
@@ -2647,38 +2831,56 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="4">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUM(C35:L35)</f>
+        <v>235</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
+      <c r="A36" s="20">
+        <v>33</v>
+      </c>
       <c r="B36" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C36" s="10">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10">
+        <v>50</v>
+      </c>
+      <c r="E36" s="10">
+        <v>50</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="9">
+        <v>20</v>
+      </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="9">
+        <v>10</v>
+      </c>
+      <c r="J36" s="10">
+        <v>50</v>
+      </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
         <f>SUM(C36:L36)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
+      <c r="A37" s="20">
+        <v>34</v>
+      </c>
       <c r="B37" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
@@ -2686,16 +2888,16 @@
       <c r="D37" s="10">
         <v>50</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10">
+        <v>50</v>
+      </c>
       <c r="F37" s="21" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="G37" s="9">
-        <v>50</v>
-      </c>
-      <c r="H37" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H37" s="9"/>
       <c r="I37" s="9">
         <v>10</v>
       </c>
@@ -2706,48 +2908,70 @@
       <c r="L37" s="9"/>
       <c r="M37" s="4">
         <f>SUM(C37:L37)</f>
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
+      <c r="A38" s="20">
+        <v>35</v>
+      </c>
       <c r="B38" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="10">
+        <v>50</v>
+      </c>
+      <c r="D38" s="10">
+        <v>50</v>
+      </c>
+      <c r="E38" s="10">
+        <v>50</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="9">
+        <v>15</v>
+      </c>
       <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
+      <c r="I38" s="9">
+        <v>10</v>
+      </c>
+      <c r="J38" s="10">
+        <v>50</v>
+      </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
         <f>SUM(C38:L38)</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
+      <c r="A39" s="20">
+        <v>36</v>
+      </c>
       <c r="B39" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C39" s="10">
         <v>50</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="D39" s="10">
+        <v>50</v>
+      </c>
+      <c r="E39" s="10">
+        <v>50</v>
+      </c>
       <c r="F39" s="21" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="G39" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H39" s="9">
         <v>5</v>
@@ -2762,15 +2986,17 @@
       <c r="L39" s="9"/>
       <c r="M39" s="4">
         <f>SUM(C39:L39)</f>
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
+      <c r="A40" s="20">
+        <v>37</v>
+      </c>
       <c r="B40" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="10">
         <v>50</v>
@@ -2778,14 +3004,18 @@
       <c r="D40" s="10">
         <v>50</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10">
+        <v>30</v>
+      </c>
       <c r="F40" s="21" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G40" s="9">
-        <v>20</v>
-      </c>
-      <c r="H40" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H40" s="9">
+        <v>5</v>
+      </c>
       <c r="I40" s="9">
         <v>10</v>
       </c>
@@ -2796,15 +3026,17 @@
       <c r="L40" s="9"/>
       <c r="M40" s="4">
         <f>SUM(C40:L40)</f>
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
+      <c r="A41" s="20">
+        <v>38</v>
+      </c>
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C41" s="10">
         <v>50</v>
@@ -2812,9 +3044,11 @@
       <c r="D41" s="10">
         <v>50</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10">
+        <v>30</v>
+      </c>
       <c r="F41" s="21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G41" s="9">
         <v>25</v>
@@ -2830,13 +3064,15 @@
       <c r="L41" s="9"/>
       <c r="M41" s="4">
         <f>SUM(C41:L41)</f>
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
+      <c r="A42" s="20">
+        <v>39</v>
+      </c>
       <c r="B42" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C42" s="10">
         <v>50</v>
@@ -2844,16 +3080,16 @@
       <c r="D42" s="10">
         <v>50</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="10">
+        <v>30</v>
+      </c>
       <c r="F42" s="21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G42" s="9">
         <v>25</v>
       </c>
-      <c r="H42" s="9">
-        <v>5</v>
-      </c>
+      <c r="H42" s="9"/>
       <c r="I42" s="9">
         <v>10</v>
       </c>
@@ -2864,25 +3100,29 @@
       <c r="L42" s="9"/>
       <c r="M42" s="4">
         <f>SUM(C42:L42)</f>
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
+      <c r="A43" s="20">
+        <v>40</v>
+      </c>
       <c r="B43" s="16" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="C43" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D43" s="10">
         <v>50</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="10">
+        <v>50</v>
+      </c>
       <c r="F43" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G43" s="9">
         <v>20</v>
@@ -2892,117 +3132,133 @@
         <v>10</v>
       </c>
       <c r="J43" s="10">
-        <v>50</v>
-      </c>
-      <c r="K43" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="K43" s="9">
+        <v>60</v>
+      </c>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
         <f>SUM(C43:L43)</f>
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
+      <c r="A44" s="20">
+        <v>41</v>
+      </c>
       <c r="B44" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C44" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D44" s="10">
-        <v>30</v>
-      </c>
-      <c r="E44" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E44" s="10">
+        <v>30</v>
+      </c>
       <c r="F44" s="21" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G44" s="9">
-        <v>50</v>
-      </c>
-      <c r="H44" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H44" s="9"/>
       <c r="I44" s="9">
         <v>10</v>
       </c>
       <c r="J44" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
         <f>SUM(C44:L44)</f>
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
+      <c r="A45" s="20">
+        <v>42</v>
+      </c>
       <c r="B45" s="16" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C45" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D45" s="10">
-        <v>10</v>
-      </c>
-      <c r="E45" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="10">
+        <v>30</v>
+      </c>
       <c r="F45" s="21" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="H45" s="9">
+        <v>5</v>
+      </c>
       <c r="I45" s="9">
         <v>10</v>
       </c>
       <c r="J45" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
         <f>SUM(C45:L45)</f>
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
+      <c r="A46" s="20">
+        <v>43</v>
+      </c>
       <c r="B46" s="16" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="C46" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D46" s="10">
         <v>30</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10">
+        <v>50</v>
+      </c>
       <c r="F46" s="21" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G46" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9">
         <v>10</v>
       </c>
       <c r="J46" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
         <f>SUM(C46:L46)</f>
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
+      <c r="A47" s="20">
+        <v>44</v>
+      </c>
       <c r="B47" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C47" s="10">
         <v>30</v>
@@ -3010,12 +3266,14 @@
       <c r="D47" s="10">
         <v>30</v>
       </c>
-      <c r="E47" s="10"/>
+      <c r="E47" s="10">
+        <v>50</v>
+      </c>
       <c r="F47" s="21" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G47" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H47" s="9">
         <v>5</v>
@@ -3030,26 +3288,30 @@
       <c r="L47" s="9"/>
       <c r="M47" s="4">
         <f>SUM(C47:L47)</f>
-        <v>125</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
+      <c r="A48" s="20">
+        <v>45</v>
+      </c>
       <c r="B48" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C48" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D48" s="10">
         <v>50</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="10">
+        <v>30</v>
+      </c>
       <c r="F48" s="21" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="G48" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H48" s="9">
         <v>5</v>
@@ -3058,34 +3320,40 @@
         <v>10</v>
       </c>
       <c r="J48" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
         <f>SUM(C48:L48)</f>
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
+      <c r="A49" s="20">
+        <v>46</v>
+      </c>
       <c r="B49" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C49" s="10">
         <v>50</v>
       </c>
       <c r="D49" s="10">
-        <v>50</v>
-      </c>
-      <c r="E49" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E49" s="10">
+        <v>30</v>
+      </c>
       <c r="F49" s="21" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G49" s="9">
-        <v>15</v>
-      </c>
-      <c r="H49" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H49" s="9">
+        <v>5</v>
+      </c>
       <c r="I49" s="9">
         <v>10</v>
       </c>
@@ -3096,13 +3364,15 @@
       <c r="L49" s="9"/>
       <c r="M49" s="4">
         <f>SUM(C49:L49)</f>
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
+      <c r="A50" s="20">
+        <v>47</v>
+      </c>
       <c r="B50" s="17" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="C50" s="10">
         <v>50</v>
@@ -3110,16 +3380,16 @@
       <c r="D50" s="10">
         <v>50</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="10">
+        <v>30</v>
+      </c>
       <c r="F50" s="21" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G50" s="9">
-        <v>15</v>
-      </c>
-      <c r="H50" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H50" s="9"/>
       <c r="I50" s="9">
         <v>10</v>
       </c>
@@ -3130,64 +3400,70 @@
       <c r="L50" s="9"/>
       <c r="M50" s="4">
         <f>SUM(C50:L50)</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
+      <c r="A51" s="20">
+        <v>48</v>
+      </c>
       <c r="B51" s="17" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C51" s="10">
-        <v>30</v>
-      </c>
-      <c r="D51" s="10">
-        <v>30</v>
-      </c>
-      <c r="E51" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
+        <v>30</v>
+      </c>
       <c r="F51" s="21" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="G51" s="9">
-        <v>10</v>
-      </c>
-      <c r="H51" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="H51" s="9">
+        <v>5</v>
+      </c>
       <c r="I51" s="9">
         <v>10</v>
       </c>
       <c r="J51" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
         <f>SUM(C51:L51)</f>
-        <v>110</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
+      <c r="A52" s="20">
+        <v>49</v>
+      </c>
       <c r="B52" s="16" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C52" s="10">
         <v>50</v>
       </c>
       <c r="D52" s="10">
-        <v>50</v>
-      </c>
-      <c r="E52" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E52" s="10">
+        <v>30</v>
+      </c>
       <c r="F52" s="21" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G52" s="9">
-        <v>10</v>
-      </c>
-      <c r="H52" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H52" s="9"/>
       <c r="I52" s="9">
         <v>10</v>
       </c>
@@ -3198,93 +3474,107 @@
       <c r="L52" s="9"/>
       <c r="M52" s="4">
         <f>SUM(C52:L52)</f>
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
+      <c r="A53" s="20">
+        <v>50</v>
+      </c>
       <c r="B53" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C53" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D53" s="10">
         <v>30</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="10">
+        <v>30</v>
+      </c>
       <c r="F53" s="21" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G53" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9">
         <v>10</v>
       </c>
       <c r="J53" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
         <f>SUM(C53:L53)</f>
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
+      <c r="A54" s="20">
+        <v>51</v>
+      </c>
       <c r="B54" s="16" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C54" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D54" s="10">
         <v>30</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="10">
+        <v>30</v>
+      </c>
       <c r="F54" s="21" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="G54" s="9">
-        <v>20</v>
-      </c>
-      <c r="H54" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="H54" s="9">
+        <v>5</v>
+      </c>
       <c r="I54" s="9">
         <v>10</v>
       </c>
       <c r="J54" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
         <f>SUM(C54:L54)</f>
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
+      <c r="A55" s="20">
+        <v>52</v>
+      </c>
       <c r="B55" s="16" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C55" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D55" s="10">
         <v>50</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="E55" s="10">
+        <v>30</v>
+      </c>
       <c r="F55" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G55" s="9">
         <v>25</v>
@@ -3296,55 +3586,65 @@
         <v>10</v>
       </c>
       <c r="J55" s="10">
-        <v>50</v>
-      </c>
-      <c r="K55" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="K55" s="9">
+        <v>30</v>
+      </c>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
         <f>SUM(C55:L55)</f>
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
+      <c r="A56" s="20">
+        <v>53</v>
+      </c>
       <c r="B56" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C56" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D56" s="10">
         <v>50</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="10">
+        <v>30</v>
+      </c>
       <c r="F56" s="21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G56" s="9">
-        <v>20</v>
-      </c>
-      <c r="H56" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="H56" s="9">
+        <v>5</v>
+      </c>
       <c r="I56" s="9">
         <v>10</v>
       </c>
       <c r="J56" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
         <f>SUM(C56:L56)</f>
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
     </row>
     <row r="57" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
+      <c r="A57" s="20">
+        <v>54</v>
+      </c>
       <c r="B57" s="16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C57" s="10">
         <v>30</v>
@@ -3352,16 +3652,16 @@
       <c r="D57" s="10">
         <v>50</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="10">
+        <v>30</v>
+      </c>
       <c r="F57" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G57" s="9">
         <v>15</v>
       </c>
-      <c r="H57" s="9">
-        <v>5</v>
-      </c>
+      <c r="H57" s="9"/>
       <c r="I57" s="9">
         <v>10</v>
       </c>
@@ -3372,96 +3672,112 @@
       <c r="L57" s="9"/>
       <c r="M57" s="4">
         <f>SUM(C57:L57)</f>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="8"/>
     </row>
     <row r="58" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
+      <c r="A58" s="20">
+        <v>55</v>
+      </c>
       <c r="B58" s="16" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C58" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D58" s="10">
         <v>30</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="10">
+        <v>30</v>
+      </c>
       <c r="F58" s="21" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G58" s="9">
-        <v>15</v>
-      </c>
-      <c r="H58" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H58" s="9">
+        <v>5</v>
+      </c>
       <c r="I58" s="9">
         <v>10</v>
       </c>
       <c r="J58" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="4">
         <f>SUM(C58:L58)</f>
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="8"/>
     </row>
     <row r="59" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="20"/>
+      <c r="A59" s="20">
+        <v>56</v>
+      </c>
       <c r="B59" s="16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C59" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D59" s="10">
         <v>30</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="10">
+        <v>30</v>
+      </c>
       <c r="F59" s="21" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="G59" s="9">
-        <v>10</v>
-      </c>
-      <c r="H59" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H59" s="9">
+        <v>5</v>
+      </c>
       <c r="I59" s="9">
         <v>10</v>
       </c>
       <c r="J59" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
         <f>SUM(C59:L59)</f>
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="8"/>
     </row>
     <row r="60" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="20"/>
+      <c r="A60" s="20">
+        <v>57</v>
+      </c>
       <c r="B60" s="16" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C60" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D60" s="10">
-        <v>50</v>
-      </c>
-      <c r="E60" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E60" s="10">
+        <v>30</v>
+      </c>
       <c r="F60" s="21" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G60" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H60" s="9">
         <v>5</v>
@@ -3470,38 +3786,40 @@
         <v>10</v>
       </c>
       <c r="J60" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
         <f>SUM(C60:L60)</f>
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="8"/>
     </row>
     <row r="61" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="20"/>
+      <c r="A61" s="20">
+        <v>58</v>
+      </c>
       <c r="B61" s="16" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C61" s="10">
         <v>30</v>
       </c>
       <c r="D61" s="10">
-        <v>50</v>
-      </c>
-      <c r="E61" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E61" s="10">
+        <v>30</v>
+      </c>
       <c r="F61" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G61" s="9">
-        <v>50</v>
-      </c>
-      <c r="H61" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H61" s="9"/>
       <c r="I61" s="9">
         <v>10</v>
       </c>
@@ -3512,204 +3830,220 @@
       <c r="L61" s="9"/>
       <c r="M61" s="4">
         <f>SUM(C61:L61)</f>
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8"/>
     </row>
     <row r="62" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
+      <c r="A62" s="20">
+        <v>59</v>
+      </c>
       <c r="B62" s="16" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="C62" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D62" s="10">
-        <v>50</v>
-      </c>
-      <c r="E62" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E62" s="10">
+        <v>30</v>
+      </c>
       <c r="F62" s="21" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="G62" s="9">
-        <v>25</v>
-      </c>
-      <c r="H62" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H62" s="9"/>
       <c r="I62" s="9">
         <v>10</v>
       </c>
       <c r="J62" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
         <f>SUM(C62:L62)</f>
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="8"/>
     </row>
     <row r="63" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="20"/>
+      <c r="A63" s="20">
+        <v>60</v>
+      </c>
       <c r="B63" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C63" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D63" s="10">
-        <v>30</v>
-      </c>
-      <c r="E63" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E63" s="10">
+        <v>50</v>
+      </c>
       <c r="F63" s="21" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G63" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9">
         <v>10</v>
       </c>
       <c r="J63" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
         <f>SUM(C63:L63)</f>
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="8"/>
     </row>
     <row r="64" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="20"/>
+      <c r="A64" s="20">
+        <v>61</v>
+      </c>
       <c r="B64" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C64" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D64" s="10">
-        <v>50</v>
-      </c>
-      <c r="E64" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E64" s="10">
+        <v>30</v>
+      </c>
       <c r="F64" s="21" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="G64" s="9">
-        <v>25</v>
-      </c>
-      <c r="H64" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H64" s="9"/>
       <c r="I64" s="9">
         <v>10</v>
       </c>
       <c r="J64" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
         <f>SUM(C64:L64)</f>
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="8"/>
     </row>
     <row r="65" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="20"/>
+      <c r="A65" s="20">
+        <v>62</v>
+      </c>
       <c r="B65" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C65" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D65" s="10">
         <v>30</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="10">
+        <v>30</v>
+      </c>
       <c r="F65" s="21" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G65" s="9">
-        <v>25</v>
-      </c>
-      <c r="H65" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H65" s="9"/>
       <c r="I65" s="9">
         <v>10</v>
       </c>
       <c r="J65" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="4">
         <f>SUM(C65:L65)</f>
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="20"/>
+      <c r="A66" s="20">
+        <v>63</v>
+      </c>
       <c r="B66" s="16" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C66" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D66" s="10">
         <v>30</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10">
+        <v>30</v>
+      </c>
       <c r="F66" s="21" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G66" s="9">
-        <v>15</v>
-      </c>
-      <c r="H66" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H66" s="9"/>
       <c r="I66" s="9">
         <v>10</v>
       </c>
       <c r="J66" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
         <f>SUM(C66:L66)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="8"/>
     </row>
     <row r="67" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="20"/>
+      <c r="A67" s="20">
+        <v>64</v>
+      </c>
       <c r="B67" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C67" s="10">
         <v>30</v>
       </c>
       <c r="D67" s="10">
-        <v>50</v>
-      </c>
-      <c r="E67" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E67" s="10">
+        <v>30</v>
+      </c>
       <c r="F67" s="21" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G67" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9">
@@ -3722,15 +4056,17 @@
       <c r="L67" s="9"/>
       <c r="M67" s="4">
         <f>SUM(C67:L67)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="8"/>
     </row>
     <row r="68" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="20"/>
+      <c r="A68" s="20">
+        <v>65</v>
+      </c>
       <c r="B68" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C68" s="10">
         <v>30</v>
@@ -3738,9 +4074,11 @@
       <c r="D68" s="10">
         <v>30</v>
       </c>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10">
+        <v>30</v>
+      </c>
       <c r="F68" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G68" s="9">
         <v>10</v>
@@ -3756,51 +4094,55 @@
       <c r="L68" s="9"/>
       <c r="M68" s="4">
         <f>SUM(C68:L68)</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="8"/>
     </row>
     <row r="69" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="20"/>
+      <c r="A69" s="20">
+        <v>66</v>
+      </c>
       <c r="B69" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C69" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D69" s="10">
         <v>30</v>
       </c>
-      <c r="E69" s="10"/>
+      <c r="E69" s="10">
+        <v>30</v>
+      </c>
       <c r="F69" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G69" s="9">
         <v>10</v>
       </c>
-      <c r="H69" s="9">
-        <v>5</v>
-      </c>
+      <c r="H69" s="9"/>
       <c r="I69" s="9">
         <v>10</v>
       </c>
       <c r="J69" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="4">
         <f>SUM(C69:L69)</f>
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="8"/>
     </row>
     <row r="70" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="20"/>
+      <c r="A70" s="20">
+        <v>67</v>
+      </c>
       <c r="B70" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C70" s="10">
         <v>30</v>
@@ -3808,9 +4150,11 @@
       <c r="D70" s="10">
         <v>30</v>
       </c>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10">
+        <v>30</v>
+      </c>
       <c r="F70" s="21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G70" s="9">
         <v>10</v>
@@ -3826,59 +4170,65 @@
       <c r="L70" s="9"/>
       <c r="M70" s="4">
         <f>SUM(C70:L70)</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="8"/>
     </row>
     <row r="71" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="20"/>
+      <c r="A71" s="20">
+        <v>68</v>
+      </c>
       <c r="B71" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C71" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D71" s="10">
         <v>10</v>
       </c>
-      <c r="E71" s="10"/>
+      <c r="E71" s="10">
+        <v>30</v>
+      </c>
       <c r="F71" s="21" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G71" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="9">
-        <v>10</v>
-      </c>
+      <c r="I71" s="9"/>
       <c r="J71" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
         <f>SUM(C71:L71)</f>
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="8"/>
     </row>
     <row r="72" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="20"/>
+      <c r="A72" s="20">
+        <v>69</v>
+      </c>
       <c r="B72" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C72" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D72" s="10">
         <v>30</v>
       </c>
-      <c r="E72" s="10"/>
+      <c r="E72" s="10">
+        <v>50</v>
+      </c>
       <c r="F72" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G72" s="9">
         <v>10</v>
@@ -3888,89 +4238,99 @@
         <v>10</v>
       </c>
       <c r="J72" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
         <f>SUM(C72:L72)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="8"/>
     </row>
     <row r="73" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="20"/>
+      <c r="A73" s="20">
+        <v>70</v>
+      </c>
       <c r="B73" s="16" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C73" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D73" s="10">
         <v>30</v>
       </c>
-      <c r="E73" s="10"/>
+      <c r="E73" s="10">
+        <v>30</v>
+      </c>
       <c r="F73" s="21" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G73" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9">
         <v>10</v>
       </c>
       <c r="J73" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
         <f>SUM(C73:L73)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="8"/>
     </row>
     <row r="74" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="20"/>
+      <c r="A74" s="20">
+        <v>71</v>
+      </c>
       <c r="B74" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C74" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D74" s="10">
-        <v>50</v>
-      </c>
-      <c r="E74" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E74" s="10">
+        <v>30</v>
+      </c>
       <c r="F74" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G74" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9">
         <v>10</v>
       </c>
       <c r="J74" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
         <f>SUM(C74:L74)</f>
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="8"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="20"/>
+      <c r="A75" s="20">
+        <v>72</v>
+      </c>
       <c r="B75" s="16" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C75" s="10">
         <v>10</v>
@@ -3978,12 +4338,14 @@
       <c r="D75" s="10">
         <v>30</v>
       </c>
-      <c r="E75" s="10"/>
+      <c r="E75" s="10">
+        <v>30</v>
+      </c>
       <c r="F75" s="21" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G75" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9">
@@ -3996,33 +4358,39 @@
       <c r="L75" s="9"/>
       <c r="M75" s="4">
         <f>SUM(C75:L75)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="20"/>
+      <c r="A76" s="20">
+        <v>73</v>
+      </c>
       <c r="B76" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C76" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D76" s="10">
         <v>30</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="10">
+        <v>30</v>
+      </c>
       <c r="F76" s="21" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G76" s="9">
-        <v>10</v>
-      </c>
-      <c r="H76" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="H76" s="9">
+        <v>5</v>
+      </c>
       <c r="I76" s="9">
         <v>10</v>
       </c>
       <c r="J76" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -4034,147 +4402,153 @@
       <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="20"/>
+      <c r="A77" s="20">
+        <v>74</v>
+      </c>
       <c r="B77" s="16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C77" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D77" s="10">
-        <v>50</v>
-      </c>
-      <c r="E77" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E77" s="10">
+        <v>30</v>
+      </c>
       <c r="F77" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G77" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9">
         <v>10</v>
       </c>
       <c r="J77" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
         <f>SUM(C77:L77)</f>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="20"/>
+      <c r="A78" s="20">
+        <v>75</v>
+      </c>
       <c r="B78" s="16" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C78" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D78" s="10">
         <v>30</v>
       </c>
-      <c r="E78" s="10"/>
+      <c r="E78" s="10">
+        <v>30</v>
+      </c>
       <c r="F78" s="21" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G78" s="9">
-        <v>20</v>
-      </c>
-      <c r="H78" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="H78" s="9">
+        <v>5</v>
+      </c>
       <c r="I78" s="9">
         <v>10</v>
       </c>
       <c r="J78" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
         <f>SUM(C78:L78)</f>
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="20"/>
+      <c r="A79" s="20">
+        <v>76</v>
+      </c>
       <c r="B79" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C79" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D79" s="10">
-        <v>30</v>
-      </c>
-      <c r="E79" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E79" s="10">
+        <v>30</v>
+      </c>
       <c r="F79" s="21" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="G79" s="9">
-        <v>25</v>
-      </c>
-      <c r="H79" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H79" s="9"/>
       <c r="I79" s="9">
         <v>10</v>
       </c>
       <c r="J79" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
         <f>SUM(C79:L79)</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="20"/>
+      <c r="A80" s="20">
+        <v>77</v>
+      </c>
       <c r="B80" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="10">
-        <v>30</v>
-      </c>
-      <c r="D80" s="10">
-        <v>30</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G80" s="9">
         <v>25</v>
       </c>
-      <c r="H80" s="9">
-        <v>5</v>
-      </c>
-      <c r="I80" s="9">
-        <v>10</v>
-      </c>
-      <c r="J80" s="10">
-        <v>30</v>
-      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="10"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
         <f>SUM(C80:L80)</f>
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="P80" s="7"/>
       <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="20"/>
+      <c r="A81" s="20">
+        <v>78</v>
+      </c>
       <c r="B81" s="16" t="s">
         <v>86</v>
       </c>
@@ -4202,18 +4576,20 @@
       <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="20"/>
+      <c r="A82" s="20">
+        <v>79</v>
+      </c>
       <c r="B82" s="16" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G82" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -4222,21 +4598,23 @@
       <c r="L82" s="9"/>
       <c r="M82" s="4">
         <f>SUM(C82:L82)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P82" s="7"/>
       <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="20"/>
+      <c r="A83" s="20">
+        <v>80</v>
+      </c>
       <c r="B83" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G83" s="9">
         <v>10</v>
@@ -4254,128 +4632,136 @@
       <c r="Q83" s="8"/>
     </row>
     <row r="84" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="20"/>
+      <c r="A84" s="20">
+        <v>81</v>
+      </c>
       <c r="B84" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="10">
-        <v>30</v>
-      </c>
-      <c r="D84" s="10">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G84" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="10">
-        <v>30</v>
-      </c>
+      <c r="J84" s="10"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="4">
         <f>SUM(C84:L84)</f>
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="P84" s="7"/>
       <c r="Q84" s="8"/>
     </row>
     <row r="85" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="20"/>
+      <c r="A85" s="20">
+        <v>82</v>
+      </c>
       <c r="B85" s="16" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="9"/>
+      <c r="F85" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" s="9">
+        <v>10</v>
+      </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="10"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
-      <c r="M85" s="4"/>
+      <c r="M85" s="4">
+        <f>SUM(C85:L85)</f>
+        <v>10</v>
+      </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="8"/>
     </row>
     <row r="86" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="20"/>
+      <c r="A86" s="20">
+        <v>83</v>
+      </c>
       <c r="B86" s="16" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="9">
-        <v>25</v>
-      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="10"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="4"/>
+      <c r="M86" s="4">
+        <f>SUM(C86:L86)</f>
+        <v>0</v>
+      </c>
       <c r="P86" s="7"/>
       <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="20"/>
+      <c r="A87" s="20">
+        <v>84</v>
+      </c>
       <c r="B87" s="16" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G87" s="9">
-        <v>20</v>
-      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="10"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="4"/>
+      <c r="M87" s="4">
+        <f>SUM(C87:L87)</f>
+        <v>0</v>
+      </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="8"/>
     </row>
     <row r="88" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="20"/>
+      <c r="A88" s="20">
+        <v>85</v>
+      </c>
       <c r="B88" s="16" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G88" s="9">
-        <v>10</v>
-      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="10"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="4"/>
+      <c r="M88" s="4">
+        <f>SUM(C88:L88)</f>
+        <v>0</v>
+      </c>
       <c r="P88" s="7"/>
       <c r="Q88" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="B3:M84">
-    <sortCondition descending="1" ref="M4"/>
+  <sortState ref="B3:M88">
+    <sortCondition descending="1" ref="M88"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="1">

--- a/media/files/2017/05/528.xlsx
+++ b/media/files/2017/05/528.xlsx
@@ -1404,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:M88"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M88" sqref="A1:M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1612,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C6" s="10">
         <v>50</v>
@@ -1624,10 +1624,10 @@
         <v>50</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G6" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H6" s="9">
         <v>5</v>
@@ -1639,12 +1639,14 @@
         <v>50</v>
       </c>
       <c r="K6" s="9">
+        <v>30</v>
+      </c>
+      <c r="L6" s="9">
         <v>60</v>
       </c>
-      <c r="L6" s="9"/>
       <c r="M6" s="4">
         <f>SUM(C6:L6)</f>
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
@@ -1654,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10">
         <v>50</v>
@@ -1666,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G7" s="9">
         <v>50</v>
@@ -1696,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10">
         <v>50</v>
@@ -1708,12 +1710,14 @@
         <v>50</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="G8" s="9">
-        <v>20</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
       <c r="I8" s="9">
         <v>10</v>
       </c>
@@ -1723,12 +1727,10 @@
       <c r="K8" s="9">
         <v>60</v>
       </c>
-      <c r="L8" s="9">
-        <v>30</v>
-      </c>
+      <c r="L8" s="9"/>
       <c r="M8" s="4">
         <f>SUM(C8:L8)</f>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
@@ -1738,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10">
         <v>50</v>
@@ -1750,14 +1752,12 @@
         <v>50</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G9" s="9">
-        <v>25</v>
-      </c>
-      <c r="H9" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="9">
         <v>10</v>
       </c>
@@ -1765,14 +1765,14 @@
         <v>50</v>
       </c>
       <c r="K9" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L9" s="9">
         <v>30</v>
       </c>
       <c r="M9" s="4">
         <f>SUM(C9:L9)</f>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
@@ -4761,7 +4761,7 @@
     </row>
   </sheetData>
   <sortState ref="B3:M88">
-    <sortCondition descending="1" ref="M88"/>
+    <sortCondition descending="1" ref="M4"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="1">
